--- a/biology/Zoologie/Cacatua/Cacatua.xlsx
+++ b/biology/Zoologie/Cacatua/Cacatua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Cacatua regroupe des oiseaux connus sous les noms de cacatoès, appartenant à la famille des Cacatuidae qui se caractérisent par un plumage clair.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme dérive de cacatoès qui provient du malais kakatūwa, soit via le portugais cacatua, soit via le néerlandais kaketoe. Le terme malais pourrait être formé de kaka qui désigne un oiseau et de tūwa qui signifie vieux[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme dérive de cacatoès qui provient du malais kakatūwa, soit via le portugais cacatua, soit via le néerlandais kaketoe. Le terme malais pourrait être formé de kaka qui désigne un oiseau et de tūwa qui signifie vieux.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 6.4, 2016) du Congrès ornithologique international (ordre phylogénique) :
 Cacatua tenuirostris – Cacatoès nasique
@@ -583,7 +599,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cacatua galerita
